--- a/new_results_1/Result_data_team_s.xlsx
+++ b/new_results_1/Result_data_team_s.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="568">
   <si>
     <t>s_size</t>
   </si>
@@ -31,42 +31,99 @@
     <t>Processed_data/cranvas_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/smooks_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/lua-mode_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/tmux-MacOSX-pasteboard_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/scielo-manager_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/etmodel_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/Byzantium_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/HoTT_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/goldendict_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/Flexget_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/cabal-dev_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/natural_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/tiled_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/cecog_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Adauth_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ktbs_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/goose_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/spine_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/radiant-clipped-extension_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/census_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/firegento-dynamiccategory_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/gte_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/pydpiper_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/CouchCocoa_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/lldpd_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/spree_flexi_variants_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/noflo_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/essential-js-design-patterns_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/silverstripe-googlesitemaps_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/CV_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/ulatencyd_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/exitwp_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/accelerate_final_results.pkl</t>
   </si>
   <si>
@@ -76,9 +133,27 @@
     <t>Processed_data/zookeeper_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/jquery.kinetic_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/sexinfo_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/nodeenv_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/traceroute_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/node-tap_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/demos_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/starrs_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/eredis_final_results.pkl</t>
   </si>
   <si>
@@ -88,12 +163,27 @@
     <t>Processed_data/xeroizer_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/android-viewflow_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/deck.js_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/lazyflow_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/advene_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/silverstripe-translatable_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/biostar-central_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/node-mbtiles_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/webdis_final_results.pkl</t>
   </si>
   <si>
@@ -103,213 +193,744 @@
     <t>Processed_data/PyHamcrest_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/scikit-image_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/WPThumb_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/burp_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/w32_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/minima_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/Aoe_Scheduler_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/spring-social_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/documentation_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/atlas-lb_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/activate_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Netdot_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/anchor-cms_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/adaptagrams_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Multiverse-SignPortals_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/BeSimpleI18nRoutingBundle_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/percol_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/sheepdog_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/mwf_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/collective.developermanual_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ransack_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/popup-el_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/shoulda-context_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Centurion_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/cookies_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/python-netfilterqueue_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/openlierox_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/SFML_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/snimpy_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/httpbin_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/otm-legacy_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/war_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/SensioGeneratorBundle_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/django-boundaryservice_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/LiipThemeBundle_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/phenotypes2genotypes_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/vim-easymotion_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/wp-autoresponder_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/i18n_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/role-strategy-plugin_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/flann_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/morpheus_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/sniproxy_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/guzzle_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/ogs_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/chef-rundeck_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/fff_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/ofxFenster_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/pnmixer_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/virtus_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/firmata.js_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/WebSocket-Node_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Modifyworld_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/khan-mobile_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/gnome-shell-extension-sensors_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/astyanax_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/jQRangeSlider_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/rails_autolink_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/cats-judge_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/grails-redis_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/diva.js_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/node-schedule_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/linear_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ncclient_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ginkgo_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/idiomatic.js_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/pkg_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/AppChan_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/PVS_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/redaxo4_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/bittorrent.org_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/pragyan_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/jsftp_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/rdoc_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/BreadBoard_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/AFNetworking_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/stapler_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ey-docs_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/arquillian-container-glassfish_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/teeworlds_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/chipKIT32-MAX_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ehcache-jcache_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/selenium-plugin_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/CocoaLumberjack_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/functional-php_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/d3py_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/lettuce_webdriver_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/scm-sync-configuration-plugin_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/LuMicuLa_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/TTTAttributedLabel_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/PLM_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/express-expose_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/tcollector_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/edis_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/scaffold_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/akka-samples_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/json-ld.org_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/jsr107spec_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/source-map_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/yoga_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/grails-coffeescript-resources_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/geordi_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/ios-sim_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/Junethack_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/pyswf_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/framework_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/Hive-JSON-Serde_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/tup_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/spring-android_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/pelita_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/node-qrcode_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/gradle-cargo-plugin_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/koalixcrm_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/reveal.js_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/shellshape_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/saucerest-java_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/node-soap_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/ConsoleBundle_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/PySurfer_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/normalize.css_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/sandbox_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/zaw_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/post-thumbnail-editor_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/java-faker_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/gnome-shell-extension-weather_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/sonospy_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/spring-retry_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/fuzzywuzzy_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/prettytime_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/growl-for-linux_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/czmq_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/unstdlib.py_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/silverstripe-tagfield_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/node-tar_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/gon_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/UML-Designer_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/spm_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/zsh-history-substring-search_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/tagteam_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/violations-plugin_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/r.js_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/syntaxhighlighter_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/shogun_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/scalacheck_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/pyxmpp2_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Template-Flute_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/artifactory-plugin_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/redcarpet_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/overcommit_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/validity_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/vim-scala_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/winston-mongodb_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/maid_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Awful.app_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/BareMetal-OS-legacy_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/emokit_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/Multicorn_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/svtplay-dl_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/json_spec_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/FacebookIrcGateway_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/bumblebee-Old-and-abbandoned_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/mirah-parser_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Pyrseas_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/PySide_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/moodle-mod_choicegroup_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Stash_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/dnsrecon_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/nabu_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/winp_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/prezto_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/json-mode_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/monitor-core_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/page-object_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Scroller_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/alex_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/forgetIT_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/SVWebViewController_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/Multiverse-Portals_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/bitcoinjs-lib_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/blackfriday_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/tldextract_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/laptop_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/socialize-sdk-ios_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/puppet-mcollective_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/python-ebay_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/joshua_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/Most-Pixels-Ever-Processing_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/Multiple-Dates-Picker-for-jQuery-UI_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/Gyazz_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/minimongo_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/bubbletree_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/pontarius-xmpp_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/spree_address_book_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/query_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/django-ratelimit_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/khan-exercises_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Tomb_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/api_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/vdrift_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/hedis_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/Tir_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/hypertable_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/sprockets-rails_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/flambe_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/packetfu_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/tedious_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/django-cumulus_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/cgeo_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/octave-doctest_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/community_plugins_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/klaus_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/typhoon_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/EcomDev_PHPUnit_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/hallo_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ntwitter_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/asterisk-java_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/podio-py_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/backupwordpress_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/Frozen-Flask_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/DCIntrospect_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/handsontable_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/erica_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/gh.el_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/headphones_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/nitrogen_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/jopt-simple_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/iSoul_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/monitoring_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/ruby-gpgme_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/alogger_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/openstreetmap-website_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/hamper_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/cfeclipse_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/libthumbor_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/rbvmomi_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/minicart_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/synfig_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/redmine_hipchat_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/luaposix_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/exp4j_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/MassiveUnit_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/mercury_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Terraria-Map-Editor_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/enunciate_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/Restler_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/JMSDebuggingBundle_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/SublimeCodeIntel_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/umurmur_final_results.pkl</t>
   </si>
   <si>
@@ -319,96 +940,342 @@
     <t>Processed_data/rvc_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/Eto_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/spark_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/Pure64_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/GYMActivity_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/WordPress-Plugin-Boilerplate_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/springlobby_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/powder_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/csslint_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/vash_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/rabbitmq-c_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/imgmin_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/WebViewer_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/vim-buffergator_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/bitHopper_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/WorldBorder_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/ceylon-runtime_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/flask-mongoalchemy_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/IXP-Manager_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/osm-tasking-manager_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Fire-Soft-Board-2_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/heroku-buildpack-ruby_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/money_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/podio-php_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/bitbake_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Provisioner_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/solr-for-wordpress_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/RHadoop_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/froide_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/etengine_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/pydub_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/follow_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/jsdiff_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/reqwest_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/logplex_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/tilelive-mapnik_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/GrinnellPlans_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/django-audit-log_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/RZUtils_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/libchewing_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/streaming-system_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/pattern_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/email_reply_parser_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/viewshare_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/ruby-net-ldap_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/django-security_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/vim-notes_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/VIE_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/ammeter_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/python4astronomers_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/openspendingjs_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/node-spdy_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/shoulda-matchers_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/zpanelx_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/play-Jug_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/zato_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/elmah-mvc_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/simperium-android_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/tablib_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/Spawner_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/GradleFx_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/cuisine_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/libqb_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/SolrSearch_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/posix-spawn_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/silverstripe-recaptcha_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/mumble_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/FitText.js_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/vlc-qt_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/TICoreDataSync_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/jq-console_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/bindfs_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/csmith_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/angular-seed_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/chocolatey_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/sbt-assembly_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/simplehttp_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/mongrel2_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/python-readability_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/CFML-in-100-minutes_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/node-x11_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/Flocking_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/iTerm2-Color-Schemes_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/LaTeXTools_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/cppzmq_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/nimbus_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/gnome-shell-system-monitor-applet_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/libgit2sharp_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/linguist_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/docs_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/coderay_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/bean_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/cheshire_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/node-hid_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/expecta_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/spray-json_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/frappe_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/commonlib_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/backbone-rails_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/commons_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/fsevents_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/travis-ci_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/We-Work-In-Philly_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ensime-sublime_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ljsyscall_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/KnpGaufretteBundle_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/The-University-of-Melbourne-Web-Templates_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/rackspace-monitoring-agent_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ftp_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/pyotherside_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Intranet_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/kanban-list_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Purchasing_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/capybara-webkit_final_results.pkl</t>
   </si>
   <si>
@@ -418,66 +1285,261 @@
     <t>Processed_data/node-statsd_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/supply_drop_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/spree_active_shipping_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/vermont_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/openbadges-backpack_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/cobertura-plugin_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/LittleProxy_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/archi_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/buzz_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/buddypress-group-email-subscription_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/FreeEed_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/jstat_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/jQuery-Tagit_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/purjo_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/jruby-parser_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/jade-mode_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/javascript-state-machine_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/github-plugin_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/sass-rails_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/gorm-tools_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/library_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/tagainijisho_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/fabulaws_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Printrun_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/mozillians_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/hair_trigger_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/CSS1K_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/packagist_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/smoke.js_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/bridge_troll_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/factory_boy_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/clean-css_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/facebook-sdk_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/opencover_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/social-connect_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/potlatch2_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/onebusaway-android_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/tfs-plugin_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/EventEmitter2_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/django-states2_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/6_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/slate_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/greenmail_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/econsensus_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Adafruit-ST7735-Library_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/zookeepr_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/mpDris2_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/SCION_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/markdown-redcarpet.tmbundle_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/puppet-nginx_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/osdlyrics_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/clcache_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/HunchWorks_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/todo.txt-vim_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/node-ftp_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/fancybox-for-wordpress_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/travis-cookbooks_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ijson_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/neo4jphp_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/qml-box2d_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/s3cmd_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/BeSimpleSoapBundle_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/SafariTabSwitching_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/python-clouddns_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/html5please_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ueberDB_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/proxychains_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/celluloid_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/poly_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/WordPress-Coding-Standards_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/XMPPFramework_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/jIRCBot_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/chef-monit_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/boxroom_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/MobArena_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/spray_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/python-snappy_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/deploy_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/libcxxrt_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/geoserver-manager_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/sigal_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/EasySOA_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/scipy_proceedings_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/neoclipse_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/JSON-java_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/puppet-ssh_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/wsc_final_results.pkl</t>
   </si>
   <si>
@@ -487,27 +1549,129 @@
     <t>Processed_data/aws-toolkit-eclipse_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/ControlPlane_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/td_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Chipmunk2D_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/magnum_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/Fill-Column-Indicator_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/geany-themes_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/testem_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/liquibase_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/portico_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/gladius-core_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/jack_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/derby_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/move.js_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/nori_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/Bookie_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/eulxml_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/auto-pairs_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/fixture-factory_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/MailCore_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/jquery-oembed-all_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/lhm_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/grails-routing_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/ngx_aws_auth_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/babel_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/android-squeezer_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/snpr_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/jenkins-control-plugin_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/dokuwiki-plugin-publish_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/cubeb_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/r509_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/orm_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Shiboken_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/semver_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/HtmlViewer_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/myPlan_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/ccm_final_results.pkl</t>
   </si>
   <si>
     <t>Processed_data/SVProgressHUD_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/Kundera_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/Arelle_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/EBBlib_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/snacktory_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/djangopeople_final_results.pkl</t>
   </si>
   <si>
@@ -517,7 +1681,43 @@
     <t>Processed_data/i18n-node_final_results.pkl</t>
   </si>
   <si>
+    <t>Processed_data/fulcrum_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/crowbar_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/liquibase-hibernate_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/imgo_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/ammo.js_final_results.pkl</t>
+  </si>
+  <si>
     <t>Processed_data/pyjwt_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/backbone-tastypie_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/buddycloud-server-java_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/DGtal_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/flip_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/nutzmore_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/delayed_job_active_record_final_results.pkl</t>
+  </si>
+  <si>
+    <t>Processed_data/SVSegmentedControl_final_results.pkl</t>
   </si>
 </sst>
 </file>
@@ -875,7 +2075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,10 +2103,10 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -917,10 +2117,10 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="D3">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -928,13 +2128,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -942,13 +2142,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -956,13 +2156,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="D6">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -970,13 +2170,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="D7">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -984,13 +2184,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="D8">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -998,13 +2198,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>1.56</v>
+        <v>0.32</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1012,10 +2212,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>0.39</v>
+        <v>0.48</v>
+      </c>
+      <c r="D10">
+        <v>0.67</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1023,13 +2226,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="C11">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1037,13 +2240,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1051,10 +2254,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C13">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="D13">
         <v>0.5</v>
@@ -1065,13 +2268,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C14">
-        <v>0.65</v>
+        <v>1.24</v>
       </c>
       <c r="D14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1079,10 +2282,10 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="D15">
         <v>0.54</v>
@@ -1093,13 +2296,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="D16">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1107,13 +2310,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1121,13 +2324,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="D18">
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1135,13 +2338,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C19">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
       <c r="D19">
-        <v>0.47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1149,13 +2352,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="D20">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1163,13 +2366,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1177,13 +2380,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1191,13 +2394,10 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>0.32</v>
-      </c>
-      <c r="D23">
-        <v>0.37</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1205,13 +2405,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1219,13 +2419,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="D25">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1233,13 +2433,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1247,13 +2447,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C27">
-        <v>0.6899999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="D27">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1261,10 +2461,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>0.44</v>
+        <v>0.36</v>
+      </c>
+      <c r="D28">
+        <v>0.62</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1272,13 +2475,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C29">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="D29">
-        <v>0.37</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1286,13 +2489,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C30">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="D30">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1300,13 +2503,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="D31">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1314,13 +2517,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1328,13 +2531,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C33">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
       <c r="D33">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1342,13 +2545,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="D34">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1356,13 +2559,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C35">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="D35">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1370,13 +2573,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C36">
-        <v>0.9399999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="D36">
-        <v>0.77</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1384,13 +2587,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C37">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1398,13 +2601,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C38">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="D38">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1412,13 +2615,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="D39">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1426,13 +2629,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>0.52</v>
+        <v>0.13</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1440,13 +2643,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="D41">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1454,13 +2657,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C42">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1468,13 +2671,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>0.5600000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="D43">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1482,13 +2685,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>2.16</v>
+        <v>0.26</v>
       </c>
       <c r="D44">
-        <v>0.67</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1496,13 +2699,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C45">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1510,13 +2713,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C46">
-        <v>0.55</v>
+        <v>0.22</v>
       </c>
       <c r="D46">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1524,13 +2727,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C47">
-        <v>0.48</v>
+        <v>0.09</v>
       </c>
       <c r="D47">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1538,10 +2741,10 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1552,13 +2755,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="D49">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1566,13 +2769,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.6</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1580,10 +2780,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>0.19</v>
+        <v>0.33</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1591,13 +2794,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C52">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1605,13 +2808,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C53">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="D53">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1619,13 +2822,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="D54">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1633,13 +2836,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C55">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1647,10 +2850,10 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C56">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="D56">
         <v>0.5</v>
@@ -1661,13 +2864,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>316</v>
       </c>
       <c r="C57">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="D57">
-        <v>0.39</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1675,13 +2878,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="D58">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1689,13 +2892,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1703,13 +2906,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C60">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="D60">
-        <v>0.46</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1717,10 +2920,10 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C61">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1728,13 +2931,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C62">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="D62">
-        <v>1.64</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1742,13 +2945,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1756,13 +2959,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
       <c r="D64">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1770,13 +2973,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C65">
-        <v>0.15</v>
+        <v>0.51</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1784,10 +2987,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C66">
-        <v>0.48</v>
+        <v>0.6</v>
+      </c>
+      <c r="D66">
+        <v>0.33</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1795,13 +3001,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="D67">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1809,13 +3015,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="C68">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
       <c r="D68">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1823,13 +3029,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C69">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1837,13 +3043,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="D70">
-        <v>0.61</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1851,13 +3057,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C71">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D71">
-        <v>0.45</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1865,13 +3071,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C72">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="D72">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1879,13 +3085,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C73">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="D73">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1893,13 +3099,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="D74">
-        <v>0.79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1907,13 +3113,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="C75">
-        <v>4.22</v>
+        <v>0.29</v>
       </c>
       <c r="D75">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1921,10 +3127,10 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="C76">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1935,13 +3141,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C77">
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="D77">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1949,13 +3155,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C78">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
       <c r="D78">
-        <v>0.83</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1963,13 +3169,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
       <c r="D79">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1977,10 +3183,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C80">
-        <v>0.26</v>
+        <v>0.22</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1988,10 +3197,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>0.62</v>
+        <v>0.45</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1999,13 +3211,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C82">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="D82">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2013,13 +3225,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C83">
-        <v>0.45</v>
+        <v>0.29</v>
       </c>
       <c r="D83">
-        <v>0.37</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2027,13 +3239,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C84">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="D84">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2041,13 +3253,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C85">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2055,13 +3267,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C86">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="D86">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2069,13 +3281,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C87">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="D87">
-        <v>0.38</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2083,10 +3295,10 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="C88">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2097,13 +3309,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C89">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="D89">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2111,13 +3323,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C90">
-        <v>0.37</v>
+        <v>0.63</v>
       </c>
       <c r="D90">
-        <v>0.54</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2125,13 +3337,10 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>0.06</v>
-      </c>
-      <c r="D91">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2139,13 +3348,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C92">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="D92">
-        <v>0.47</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2153,13 +3362,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C93">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2167,13 +3376,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C94">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="D94">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2181,10 +3390,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C95">
-        <v>0.53</v>
+        <v>0.32</v>
+      </c>
+      <c r="D95">
+        <v>0.25</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2192,13 +3404,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C96">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="D96">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2206,13 +3418,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>0.73</v>
+        <v>0.47</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2220,13 +3432,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C98">
-        <v>0.25</v>
+        <v>0.52</v>
       </c>
       <c r="D98">
-        <v>0.32</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2234,13 +3446,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>117</v>
+        <v>299</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2248,13 +3460,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C100">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2262,13 +3474,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>0.58</v>
+        <v>0.3</v>
       </c>
       <c r="D101">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2276,10 +3488,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D102">
+        <v>0.75</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2287,13 +3502,10 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C103">
-        <v>0.44</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2301,13 +3513,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="D104">
-        <v>0.39</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2315,13 +3527,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C105">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="D105">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2329,13 +3541,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C106">
-        <v>0.57</v>
+        <v>4</v>
       </c>
       <c r="D106">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2343,10 +3555,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C107">
-        <v>0.72</v>
+        <v>0.42</v>
+      </c>
+      <c r="D107">
+        <v>0.67</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2354,13 +3569,10 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C108">
-        <v>0.44</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2368,13 +3580,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C109">
-        <v>0.39</v>
+        <v>0.68</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2385,10 +3597,10 @@
         <v>14</v>
       </c>
       <c r="C110">
-        <v>0.65</v>
+        <v>0.41</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2396,13 +3608,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C111">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="D111">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2410,13 +3622,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C112">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="D112">
-        <v>0.66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2424,10 +3636,10 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C113">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -2438,13 +3650,10 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="C114">
-        <v>0.72</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2452,13 +3661,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C115">
-        <v>0.67</v>
+        <v>0.27</v>
       </c>
       <c r="D115">
-        <v>0.8</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2466,13 +3675,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C116">
+        <v>0.55</v>
+      </c>
+      <c r="D116">
         <v>0.5600000000000001</v>
-      </c>
-      <c r="D116">
-        <v>0.67</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2480,13 +3689,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C117">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2494,13 +3703,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C118">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="D118">
-        <v>0.92</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2508,13 +3717,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C119">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="D119">
-        <v>0.49</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2522,13 +3731,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C120">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="D120">
-        <v>0.62</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2536,13 +3745,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C121">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="D121">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2550,13 +3759,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C122">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="D122">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2564,13 +3773,10 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>0.77</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2578,13 +3784,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="C124">
-        <v>0.58</v>
+        <v>0.39</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2595,10 +3801,10 @@
         <v>27</v>
       </c>
       <c r="C125">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D125">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2606,13 +3812,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C126">
-        <v>0.47</v>
+        <v>0.12</v>
       </c>
       <c r="D126">
-        <v>0.75</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2620,13 +3826,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C127">
-        <v>0.54</v>
+        <v>0.22</v>
       </c>
       <c r="D127">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2634,13 +3840,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="C128">
-        <v>0.38</v>
+        <v>0.61</v>
       </c>
       <c r="D128">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2648,10 +3854,10 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C129">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D129">
         <v>0.67</v>
@@ -2662,13 +3868,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C130">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D130">
-        <v>0.42</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2676,13 +3882,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="C131">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="D131">
-        <v>0.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2690,13 +3896,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C132">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="D132">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2704,13 +3910,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C133">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="D133">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2718,13 +3924,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="D134">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2732,13 +3938,10 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C135">
-        <v>0.34</v>
-      </c>
-      <c r="D135">
-        <v>0.55</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2746,13 +3949,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C136">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="D136">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2760,13 +3963,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2774,13 +3977,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C138">
-        <v>0.43</v>
+        <v>0.28</v>
       </c>
       <c r="D138">
-        <v>0.31</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2788,13 +3991,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="C139">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="D139">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2802,13 +4005,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C140">
-        <v>0.58</v>
+        <v>0.4</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2816,13 +4019,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C141">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2830,13 +4033,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C142">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="D142">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2844,13 +4047,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C143">
-        <v>0.19</v>
+        <v>0.43</v>
       </c>
       <c r="D143">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2858,13 +4061,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C144">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="D144">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2872,13 +4075,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C145">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="D145">
-        <v>0.77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2886,13 +4089,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C146">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2900,13 +4103,10 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C147">
-        <v>0.27</v>
-      </c>
-      <c r="D147">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2914,13 +4114,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C148">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D148">
-        <v>0.79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2928,13 +4128,10 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C149">
-        <v>0.64</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2942,13 +4139,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C150">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="D150">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2956,10 +4153,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <v>0.48</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D151">
+        <v>0.2</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2967,13 +4167,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C152">
-        <v>0.21</v>
+        <v>0.6</v>
       </c>
       <c r="D152">
-        <v>0.33</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2981,13 +4181,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C153">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2995,13 +4195,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C154">
-        <v>0.2</v>
+        <v>0.61</v>
       </c>
       <c r="D154">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3009,13 +4209,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C155">
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
       <c r="D155">
-        <v>1.33</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3023,13 +4223,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C156">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="D156">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3037,13 +4237,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C157">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="D157">
-        <v>0.67</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3051,13 +4251,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C158">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="D158">
-        <v>0.39</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3065,13 +4265,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C159">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3079,13 +4279,10 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C160">
-        <v>0.78</v>
-      </c>
-      <c r="D160">
-        <v>0.75</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3093,10 +4290,10 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="C161">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -3107,13 +4304,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C162">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="D162">
-        <v>0.42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3121,13 +4318,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C163">
-        <v>0.41</v>
+        <v>0.91</v>
       </c>
       <c r="D163">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3135,13 +4332,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C164">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3149,13 +4346,5541 @@
         <v>167</v>
       </c>
       <c r="B165">
+        <v>19</v>
+      </c>
+      <c r="C165">
+        <v>0.5</v>
+      </c>
+      <c r="D165">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166">
+        <v>35</v>
+      </c>
+      <c r="C166">
+        <v>0.35</v>
+      </c>
+      <c r="D166">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167">
+        <v>29</v>
+      </c>
+      <c r="C167">
+        <v>0.43</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168">
+        <v>8</v>
+      </c>
+      <c r="C168">
+        <v>0.67</v>
+      </c>
+      <c r="D168">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169">
+        <v>255</v>
+      </c>
+      <c r="C169">
+        <v>0.54</v>
+      </c>
+      <c r="D169">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170">
+        <v>18</v>
+      </c>
+      <c r="C170">
+        <v>0.31</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171">
+        <v>23</v>
+      </c>
+      <c r="C171">
+        <v>0.23</v>
+      </c>
+      <c r="D171">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172">
+        <v>153</v>
+      </c>
+      <c r="C172">
+        <v>0.12</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173">
+        <v>14</v>
+      </c>
+      <c r="C173">
+        <v>0.4</v>
+      </c>
+      <c r="D173">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174">
+        <v>23</v>
+      </c>
+      <c r="C174">
+        <v>0.59</v>
+      </c>
+      <c r="D174">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175">
+        <v>16</v>
+      </c>
+      <c r="C175">
+        <v>0.61</v>
+      </c>
+      <c r="D175">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176">
+        <v>43</v>
+      </c>
+      <c r="C176">
+        <v>0.02</v>
+      </c>
+      <c r="D176">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177">
+        <v>29</v>
+      </c>
+      <c r="C177">
+        <v>0.13</v>
+      </c>
+      <c r="D177">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178">
+        <v>14</v>
+      </c>
+      <c r="C178">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179">
+        <v>47</v>
+      </c>
+      <c r="C179">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180">
+        <v>22</v>
+      </c>
+      <c r="C180">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D180">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181">
+        <v>8</v>
+      </c>
+      <c r="C181">
+        <v>0.61</v>
+      </c>
+      <c r="D181">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>0.33</v>
+      </c>
+      <c r="D182">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183">
+        <v>54</v>
+      </c>
+      <c r="C183">
+        <v>0.18</v>
+      </c>
+      <c r="D183">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184">
+        <v>63</v>
+      </c>
+      <c r="C184">
+        <v>0.2</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185">
+        <v>13</v>
+      </c>
+      <c r="C185">
+        <v>0.41</v>
+      </c>
+      <c r="D185">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186">
+        <v>198</v>
+      </c>
+      <c r="C186">
+        <v>0.58</v>
+      </c>
+      <c r="D186">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>0.26</v>
+      </c>
+      <c r="D187">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188">
+        <v>35</v>
+      </c>
+      <c r="C188">
+        <v>0.5</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189">
+        <v>12</v>
+      </c>
+      <c r="C189">
+        <v>0.48</v>
+      </c>
+      <c r="D189">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190">
+        <v>64</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191">
+        <v>22</v>
+      </c>
+      <c r="C191">
+        <v>0.47</v>
+      </c>
+      <c r="D191">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192">
+        <v>20</v>
+      </c>
+      <c r="C192">
+        <v>0.03</v>
+      </c>
+      <c r="D192">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193">
+        <v>11</v>
+      </c>
+      <c r="C193">
+        <v>0.4</v>
+      </c>
+      <c r="D193">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194">
+        <v>19</v>
+      </c>
+      <c r="C194">
+        <v>0.45</v>
+      </c>
+      <c r="D194">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195">
+        <v>43</v>
+      </c>
+      <c r="C195">
+        <v>0.21</v>
+      </c>
+      <c r="D195">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196">
+        <v>68</v>
+      </c>
+      <c r="C196">
+        <v>0.35</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197">
+        <v>34</v>
+      </c>
+      <c r="C197">
+        <v>0.37</v>
+      </c>
+      <c r="D197">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198">
+        <v>196</v>
+      </c>
+      <c r="C198">
+        <v>0.37</v>
+      </c>
+      <c r="D198">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199">
+        <v>94</v>
+      </c>
+      <c r="C199">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D199">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200">
+        <v>8</v>
+      </c>
+      <c r="C200">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201">
+        <v>13</v>
+      </c>
+      <c r="C201">
+        <v>0.28</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202">
+        <v>68</v>
+      </c>
+      <c r="C202">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203">
+        <v>96</v>
+      </c>
+      <c r="C203">
+        <v>0.27</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204">
+        <v>38</v>
+      </c>
+      <c r="C204">
+        <v>0.44</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205">
+        <v>17</v>
+      </c>
+      <c r="C205">
+        <v>0.43</v>
+      </c>
+      <c r="D205">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206">
+        <v>30</v>
+      </c>
+      <c r="C206">
+        <v>0.45</v>
+      </c>
+      <c r="D206">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207">
+        <v>30</v>
+      </c>
+      <c r="C207">
+        <v>0.62</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208">
+        <v>23</v>
+      </c>
+      <c r="C208">
+        <v>0.21</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209">
+        <v>24</v>
+      </c>
+      <c r="C209">
+        <v>0.46</v>
+      </c>
+      <c r="D209">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210">
+        <v>16</v>
+      </c>
+      <c r="C210">
+        <v>0.4</v>
+      </c>
+      <c r="D210">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211">
+        <v>23</v>
+      </c>
+      <c r="C211">
+        <v>0.42</v>
+      </c>
+      <c r="D211">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B212">
+        <v>29</v>
+      </c>
+      <c r="C212">
+        <v>0.41</v>
+      </c>
+      <c r="D212">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213">
+        <v>23</v>
+      </c>
+      <c r="C213">
+        <v>0.5</v>
+      </c>
+      <c r="D213">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B214">
+        <v>19</v>
+      </c>
+      <c r="C214">
+        <v>0.27</v>
+      </c>
+      <c r="D214">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B215">
+        <v>9</v>
+      </c>
+      <c r="C215">
+        <v>0.41</v>
+      </c>
+      <c r="D215">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216">
+        <v>26</v>
+      </c>
+      <c r="C216">
+        <v>0.54</v>
+      </c>
+      <c r="D216">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B217">
+        <v>9</v>
+      </c>
+      <c r="C217">
+        <v>0.19</v>
+      </c>
+      <c r="D217">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218">
+        <v>14</v>
+      </c>
+      <c r="C218">
+        <v>0.62</v>
+      </c>
+      <c r="D218">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B219">
+        <v>19</v>
+      </c>
+      <c r="C219">
+        <v>0.28</v>
+      </c>
+      <c r="D219">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220">
+        <v>26</v>
+      </c>
+      <c r="C220">
+        <v>0.34</v>
+      </c>
+      <c r="D220">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B221">
+        <v>50</v>
+      </c>
+      <c r="C221">
+        <v>0.31</v>
+      </c>
+      <c r="D221">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B222">
+        <v>32</v>
+      </c>
+      <c r="C222">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D222">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223">
+        <v>10</v>
+      </c>
+      <c r="C223">
+        <v>0.6</v>
+      </c>
+      <c r="D223">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224">
+        <v>14</v>
+      </c>
+      <c r="C224">
+        <v>0.36</v>
+      </c>
+      <c r="D224">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225">
+        <v>162</v>
+      </c>
+      <c r="C225">
+        <v>0.43</v>
+      </c>
+      <c r="D225">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226">
+        <v>22</v>
+      </c>
+      <c r="C226">
+        <v>0.32</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227">
+        <v>102</v>
+      </c>
+      <c r="C227">
+        <v>0.04</v>
+      </c>
+      <c r="D227">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228">
+        <v>65</v>
+      </c>
+      <c r="C228">
+        <v>0.5</v>
+      </c>
+      <c r="D228">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229">
+        <v>14</v>
+      </c>
+      <c r="C229">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230">
+        <v>51</v>
+      </c>
+      <c r="C230">
+        <v>0.44</v>
+      </c>
+      <c r="D230">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231">
+        <v>10</v>
+      </c>
+      <c r="C231">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232">
+        <v>32</v>
+      </c>
+      <c r="C232">
+        <v>0.43</v>
+      </c>
+      <c r="D232">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233">
+        <v>15</v>
+      </c>
+      <c r="C233">
+        <v>0.74</v>
+      </c>
+      <c r="D233">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234">
+        <v>62</v>
+      </c>
+      <c r="C234">
+        <v>0.48</v>
+      </c>
+      <c r="D234">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235">
+        <v>49</v>
+      </c>
+      <c r="C235">
+        <v>0.43</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236">
+        <v>27</v>
+      </c>
+      <c r="C236">
+        <v>0.5</v>
+      </c>
+      <c r="D236">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237">
+        <v>51</v>
+      </c>
+      <c r="C237">
+        <v>0.46</v>
+      </c>
+      <c r="D237">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238">
+        <v>23</v>
+      </c>
+      <c r="C238">
+        <v>0.4</v>
+      </c>
+      <c r="D238">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B239">
+        <v>79</v>
+      </c>
+      <c r="C239">
+        <v>0.41</v>
+      </c>
+      <c r="D239">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240">
+        <v>8</v>
+      </c>
+      <c r="C240">
+        <v>0.57</v>
+      </c>
+      <c r="D240">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241">
+        <v>40</v>
+      </c>
+      <c r="C241">
+        <v>0.53</v>
+      </c>
+      <c r="D241">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B242">
+        <v>12</v>
+      </c>
+      <c r="C242">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243">
+        <v>8</v>
+      </c>
+      <c r="C243">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B244">
+        <v>8</v>
+      </c>
+      <c r="C244">
+        <v>0.12</v>
+      </c>
+      <c r="D244">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B245">
+        <v>10</v>
+      </c>
+      <c r="C245">
+        <v>0.45</v>
+      </c>
+      <c r="D245">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246">
+        <v>13</v>
+      </c>
+      <c r="C246">
+        <v>0.62</v>
+      </c>
+      <c r="D246">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B247">
+        <v>15</v>
+      </c>
+      <c r="C247">
+        <v>0.57</v>
+      </c>
+      <c r="D247">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B248">
+        <v>24</v>
+      </c>
+      <c r="C248">
+        <v>0.45</v>
+      </c>
+      <c r="D248">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B249">
+        <v>14</v>
+      </c>
+      <c r="C249">
+        <v>0.5</v>
+      </c>
+      <c r="D249">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250">
+        <v>30</v>
+      </c>
+      <c r="C250">
+        <v>0.36</v>
+      </c>
+      <c r="D250">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251">
+        <v>190</v>
+      </c>
+      <c r="C251">
+        <v>0.48</v>
+      </c>
+      <c r="D251">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252">
         <v>44</v>
       </c>
-      <c r="C165">
+      <c r="C252">
+        <v>0.54</v>
+      </c>
+      <c r="D252">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253">
+        <v>10</v>
+      </c>
+      <c r="C253">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254">
+        <v>33</v>
+      </c>
+      <c r="C254">
+        <v>0.47</v>
+      </c>
+      <c r="D254">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B255">
+        <v>30</v>
+      </c>
+      <c r="C255">
+        <v>0.26</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B256">
+        <v>10</v>
+      </c>
+      <c r="C256">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257">
+        <v>22</v>
+      </c>
+      <c r="C257">
+        <v>0.53</v>
+      </c>
+      <c r="D257">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258">
+        <v>64</v>
+      </c>
+      <c r="C258">
+        <v>0.12</v>
+      </c>
+      <c r="D258">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259">
+        <v>19</v>
+      </c>
+      <c r="C259">
+        <v>0.53</v>
+      </c>
+      <c r="D259">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260">
+        <v>26</v>
+      </c>
+      <c r="C260">
+        <v>0.25</v>
+      </c>
+      <c r="D260">
         <v>0.3</v>
       </c>
-      <c r="D165">
-        <v>1</v>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261">
+        <v>61</v>
+      </c>
+      <c r="C261">
+        <v>0.45</v>
+      </c>
+      <c r="D261">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262">
+        <v>39</v>
+      </c>
+      <c r="C262">
+        <v>0.15</v>
+      </c>
+      <c r="D262">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263">
+        <v>116</v>
+      </c>
+      <c r="C263">
+        <v>0.31</v>
+      </c>
+      <c r="D263">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B264">
+        <v>10</v>
+      </c>
+      <c r="C264">
+        <v>0.45</v>
+      </c>
+      <c r="D264">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B265">
+        <v>15</v>
+      </c>
+      <c r="C265">
+        <v>0.57</v>
+      </c>
+      <c r="D265">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B266">
+        <v>24</v>
+      </c>
+      <c r="C266">
+        <v>0.53</v>
+      </c>
+      <c r="D266">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B267">
+        <v>12</v>
+      </c>
+      <c r="C267">
+        <v>0.42</v>
+      </c>
+      <c r="D267">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268">
+        <v>27</v>
+      </c>
+      <c r="C268">
+        <v>0.35</v>
+      </c>
+      <c r="D268">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B269">
+        <v>36</v>
+      </c>
+      <c r="C269">
+        <v>0.5</v>
+      </c>
+      <c r="D269">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B270">
+        <v>26</v>
+      </c>
+      <c r="C270">
+        <v>0.37</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B271">
+        <v>71</v>
+      </c>
+      <c r="C271">
+        <v>0.16</v>
+      </c>
+      <c r="D271">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B272">
+        <v>28</v>
+      </c>
+      <c r="C272">
+        <v>0.67</v>
+      </c>
+      <c r="D272">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B273">
+        <v>40</v>
+      </c>
+      <c r="C273">
+        <v>0.46</v>
+      </c>
+      <c r="D273">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274">
+        <v>22</v>
+      </c>
+      <c r="C274">
+        <v>0.6</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275">
+        <v>12</v>
+      </c>
+      <c r="C275">
+        <v>0.45</v>
+      </c>
+      <c r="D275">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B276">
+        <v>80</v>
+      </c>
+      <c r="C276">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277">
+        <v>31</v>
+      </c>
+      <c r="C277">
+        <v>0.47</v>
+      </c>
+      <c r="D277">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B278">
+        <v>23</v>
+      </c>
+      <c r="C278">
+        <v>0.4</v>
+      </c>
+      <c r="D278">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279">
+        <v>153</v>
+      </c>
+      <c r="C279">
+        <v>0.32</v>
+      </c>
+      <c r="D279">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280">
+        <v>20</v>
+      </c>
+      <c r="C280">
+        <v>0.45</v>
+      </c>
+      <c r="D280">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B281">
+        <v>24</v>
+      </c>
+      <c r="C281">
+        <v>0.37</v>
+      </c>
+      <c r="D281">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282">
+        <v>29</v>
+      </c>
+      <c r="C282">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B283">
+        <v>8</v>
+      </c>
+      <c r="C283">
+        <v>0.06</v>
+      </c>
+      <c r="D283">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284">
+        <v>15</v>
+      </c>
+      <c r="C284">
+        <v>0.43</v>
+      </c>
+      <c r="D284">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285">
+        <v>9</v>
+      </c>
+      <c r="C285">
+        <v>0.43</v>
+      </c>
+      <c r="D285">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286">
+        <v>105</v>
+      </c>
+      <c r="C286">
+        <v>0.4</v>
+      </c>
+      <c r="D286">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287">
+        <v>20</v>
+      </c>
+      <c r="C287">
+        <v>0.46</v>
+      </c>
+      <c r="D287">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288">
+        <v>29</v>
+      </c>
+      <c r="C288">
+        <v>0.03</v>
+      </c>
+      <c r="D288">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289">
+        <v>16</v>
+      </c>
+      <c r="C289">
+        <v>0.28</v>
+      </c>
+      <c r="D289">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290">
+        <v>33</v>
+      </c>
+      <c r="C290">
+        <v>0.29</v>
+      </c>
+      <c r="D290">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291">
+        <v>10</v>
+      </c>
+      <c r="C291">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292">
+        <v>58</v>
+      </c>
+      <c r="C292">
+        <v>0.34</v>
+      </c>
+      <c r="D292">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293">
+        <v>8</v>
+      </c>
+      <c r="C293">
+        <v>0.08</v>
+      </c>
+      <c r="D293">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294">
+        <v>41</v>
+      </c>
+      <c r="C294">
+        <v>0.52</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295">
+        <v>11</v>
+      </c>
+      <c r="C295">
+        <v>0.28</v>
+      </c>
+      <c r="D295">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296">
+        <v>21</v>
+      </c>
+      <c r="C296">
+        <v>0.46</v>
+      </c>
+      <c r="D296">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297">
+        <v>69</v>
+      </c>
+      <c r="C297">
+        <v>0.48</v>
+      </c>
+      <c r="D297">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298">
+        <v>30</v>
+      </c>
+      <c r="C298">
+        <v>0.75</v>
+      </c>
+      <c r="D298">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299">
+        <v>62</v>
+      </c>
+      <c r="C299">
+        <v>0.49</v>
+      </c>
+      <c r="D299">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300">
+        <v>22</v>
+      </c>
+      <c r="C300">
+        <v>0.53</v>
+      </c>
+      <c r="D300">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301">
+        <v>26</v>
+      </c>
+      <c r="C301">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D301">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302">
+        <v>34</v>
+      </c>
+      <c r="C302">
+        <v>0.05</v>
+      </c>
+      <c r="D302">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303">
+        <v>19</v>
+      </c>
+      <c r="C303">
+        <v>0.51</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304">
+        <v>34</v>
+      </c>
+      <c r="C304">
+        <v>0.45</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305">
+        <v>19</v>
+      </c>
+      <c r="C305">
+        <v>0.25</v>
+      </c>
+      <c r="D305">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306">
+        <v>42</v>
+      </c>
+      <c r="C306">
+        <v>0.51</v>
+      </c>
+      <c r="D306">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307">
+        <v>117</v>
+      </c>
+      <c r="C307">
+        <v>0.48</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308">
+        <v>8</v>
+      </c>
+      <c r="C308">
+        <v>0.61</v>
+      </c>
+      <c r="D308">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309">
+        <v>17</v>
+      </c>
+      <c r="C309">
+        <v>0.28</v>
+      </c>
+      <c r="D309">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310">
+        <v>68</v>
+      </c>
+      <c r="C310">
+        <v>0.44</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B311">
+        <v>60</v>
+      </c>
+      <c r="C311">
+        <v>0.38</v>
+      </c>
+      <c r="D311">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312">
+        <v>56</v>
+      </c>
+      <c r="C312">
+        <v>0.1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B313">
+        <v>60</v>
+      </c>
+      <c r="C313">
+        <v>0.43</v>
+      </c>
+      <c r="D313">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B314">
+        <v>12</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B315">
+        <v>43</v>
+      </c>
+      <c r="C315">
+        <v>0.37</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B316">
+        <v>12</v>
+      </c>
+      <c r="C316">
+        <v>0.5</v>
+      </c>
+      <c r="D316">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B317">
+        <v>13</v>
+      </c>
+      <c r="C317">
+        <v>0.46</v>
+      </c>
+      <c r="D317">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318">
+        <v>16</v>
+      </c>
+      <c r="C318">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319">
+        <v>52</v>
+      </c>
+      <c r="C319">
+        <v>0.53</v>
+      </c>
+      <c r="D319">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320">
+        <v>21</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321">
+        <v>13</v>
+      </c>
+      <c r="C321">
+        <v>0.51</v>
+      </c>
+      <c r="D321">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B322">
+        <v>10</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323">
+        <v>17</v>
+      </c>
+      <c r="C323">
+        <v>0.34</v>
+      </c>
+      <c r="D323">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B324">
+        <v>18</v>
+      </c>
+      <c r="C324">
+        <v>0.42</v>
+      </c>
+      <c r="D324">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B325">
+        <v>14</v>
+      </c>
+      <c r="C325">
+        <v>0.21</v>
+      </c>
+      <c r="D325">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B326">
+        <v>57</v>
+      </c>
+      <c r="C326">
+        <v>0.18</v>
+      </c>
+      <c r="D326">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B327">
+        <v>34</v>
+      </c>
+      <c r="C327">
+        <v>0.57</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B328">
+        <v>41</v>
+      </c>
+      <c r="C328">
+        <v>0.5</v>
+      </c>
+      <c r="D328">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B329">
+        <v>25</v>
+      </c>
+      <c r="C329">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B330">
+        <v>58</v>
+      </c>
+      <c r="C330">
+        <v>0.32</v>
+      </c>
+      <c r="D330">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B331">
+        <v>13</v>
+      </c>
+      <c r="C331">
+        <v>0.5</v>
+      </c>
+      <c r="D331">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B332">
+        <v>10</v>
+      </c>
+      <c r="C332">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B333">
+        <v>14</v>
+      </c>
+      <c r="C333">
+        <v>0.35</v>
+      </c>
+      <c r="D333">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B334">
+        <v>35</v>
+      </c>
+      <c r="C334">
+        <v>0.41</v>
+      </c>
+      <c r="D334">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B335">
+        <v>63</v>
+      </c>
+      <c r="C335">
+        <v>0.43</v>
+      </c>
+      <c r="D335">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B336">
+        <v>25</v>
+      </c>
+      <c r="C336">
+        <v>0.18</v>
+      </c>
+      <c r="D336">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B337">
+        <v>44</v>
+      </c>
+      <c r="C337">
+        <v>0.04</v>
+      </c>
+      <c r="D337">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B338">
+        <v>51</v>
+      </c>
+      <c r="C338">
+        <v>0.38</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B339">
+        <v>33</v>
+      </c>
+      <c r="C339">
+        <v>0.51</v>
+      </c>
+      <c r="D339">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B340">
+        <v>14</v>
+      </c>
+      <c r="C340">
+        <v>0.17</v>
+      </c>
+      <c r="D340">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B341">
+        <v>17</v>
+      </c>
+      <c r="C341">
+        <v>0.37</v>
+      </c>
+      <c r="D341">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B342">
+        <v>13</v>
+      </c>
+      <c r="C342">
+        <v>0.72</v>
+      </c>
+      <c r="D342">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B343">
+        <v>26</v>
+      </c>
+      <c r="C343">
+        <v>0.33</v>
+      </c>
+      <c r="D343">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B344">
+        <v>50</v>
+      </c>
+      <c r="C344">
+        <v>0.3</v>
+      </c>
+      <c r="D344">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B345">
+        <v>21</v>
+      </c>
+      <c r="C345">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D345">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B346">
+        <v>28</v>
+      </c>
+      <c r="C346">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D346">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B347">
+        <v>23</v>
+      </c>
+      <c r="C347">
+        <v>0.17</v>
+      </c>
+      <c r="D347">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B348">
+        <v>10</v>
+      </c>
+      <c r="C348">
+        <v>0.3</v>
+      </c>
+      <c r="D348">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349">
+        <v>81</v>
+      </c>
+      <c r="C349">
+        <v>0.32</v>
+      </c>
+      <c r="D349">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350">
+        <v>25</v>
+      </c>
+      <c r="C350">
+        <v>0.39</v>
+      </c>
+      <c r="D350">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B351">
+        <v>14</v>
+      </c>
+      <c r="C351">
+        <v>0.65</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B352">
+        <v>25</v>
+      </c>
+      <c r="C352">
+        <v>0.38</v>
+      </c>
+      <c r="D352">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B353">
+        <v>18</v>
+      </c>
+      <c r="C353">
+        <v>0.38</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B354">
+        <v>11</v>
+      </c>
+      <c r="C354">
+        <v>0.45</v>
+      </c>
+      <c r="D354">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B355">
+        <v>25</v>
+      </c>
+      <c r="C355">
+        <v>0.3</v>
+      </c>
+      <c r="D355">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B356">
+        <v>24</v>
+      </c>
+      <c r="C356">
+        <v>0.37</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B357">
+        <v>97</v>
+      </c>
+      <c r="C357">
+        <v>0.34</v>
+      </c>
+      <c r="D357">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B358">
+        <v>49</v>
+      </c>
+      <c r="C358">
+        <v>0.52</v>
+      </c>
+      <c r="D358">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B359">
+        <v>9</v>
+      </c>
+      <c r="C359">
+        <v>0.35</v>
+      </c>
+      <c r="D359">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B360">
+        <v>29</v>
+      </c>
+      <c r="C360">
+        <v>0.31</v>
+      </c>
+      <c r="D360">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B361">
+        <v>21</v>
+      </c>
+      <c r="C361">
+        <v>0.17</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B362">
+        <v>12</v>
+      </c>
+      <c r="C362">
+        <v>0.12</v>
+      </c>
+      <c r="D362">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B363">
+        <v>87</v>
+      </c>
+      <c r="C363">
+        <v>1.12</v>
+      </c>
+      <c r="D363">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B364">
+        <v>17</v>
+      </c>
+      <c r="C364">
+        <v>0.1</v>
+      </c>
+      <c r="D364">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B365">
+        <v>29</v>
+      </c>
+      <c r="C365">
+        <v>0.33</v>
+      </c>
+      <c r="D365">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B366">
+        <v>55</v>
+      </c>
+      <c r="C366">
+        <v>0.67</v>
+      </c>
+      <c r="D366">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B367">
+        <v>35</v>
+      </c>
+      <c r="C367">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D367">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B368">
+        <v>14</v>
+      </c>
+      <c r="C368">
+        <v>0.41</v>
+      </c>
+      <c r="D368">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B369">
+        <v>26</v>
+      </c>
+      <c r="C369">
+        <v>0.49</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B370">
+        <v>25</v>
+      </c>
+      <c r="C370">
+        <v>0.38</v>
+      </c>
+      <c r="D370">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B371">
+        <v>87</v>
+      </c>
+      <c r="C371">
+        <v>0.36</v>
+      </c>
+      <c r="D371">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B372">
+        <v>19</v>
+      </c>
+      <c r="C372">
+        <v>0.29</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B373">
+        <v>9</v>
+      </c>
+      <c r="C373">
+        <v>0.39</v>
+      </c>
+      <c r="D373">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B374">
+        <v>8</v>
+      </c>
+      <c r="C374">
+        <v>0.3</v>
+      </c>
+      <c r="D374">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B375">
+        <v>13</v>
+      </c>
+      <c r="C375">
+        <v>0.37</v>
+      </c>
+      <c r="D375">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B376">
+        <v>16</v>
+      </c>
+      <c r="C376">
+        <v>0.48</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B377">
+        <v>29</v>
+      </c>
+      <c r="C377">
+        <v>0.62</v>
+      </c>
+      <c r="D377">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B378">
+        <v>16</v>
+      </c>
+      <c r="C378">
+        <v>0.6</v>
+      </c>
+      <c r="D378">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B379">
+        <v>24</v>
+      </c>
+      <c r="C379">
+        <v>0.41</v>
+      </c>
+      <c r="D379">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B380">
+        <v>62</v>
+      </c>
+      <c r="C380">
+        <v>0.67</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B381">
+        <v>11</v>
+      </c>
+      <c r="C381">
+        <v>0.52</v>
+      </c>
+      <c r="D381">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B382">
+        <v>53</v>
+      </c>
+      <c r="C382">
+        <v>0.14</v>
+      </c>
+      <c r="D382">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B383">
+        <v>29</v>
+      </c>
+      <c r="C383">
+        <v>0.42</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B384">
+        <v>22</v>
+      </c>
+      <c r="C384">
+        <v>0.17</v>
+      </c>
+      <c r="D384">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B385">
+        <v>27</v>
+      </c>
+      <c r="C385">
+        <v>0.41</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B386">
+        <v>14</v>
+      </c>
+      <c r="C386">
+        <v>0.62</v>
+      </c>
+      <c r="D386">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B387">
+        <v>90</v>
+      </c>
+      <c r="C387">
+        <v>0.32</v>
+      </c>
+      <c r="D387">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B388">
+        <v>46</v>
+      </c>
+      <c r="C388">
+        <v>0.34</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B389">
+        <v>74</v>
+      </c>
+      <c r="C389">
+        <v>0.5</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B390">
+        <v>101</v>
+      </c>
+      <c r="C390">
+        <v>0.36</v>
+      </c>
+      <c r="D390">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B391">
+        <v>78</v>
+      </c>
+      <c r="C391">
+        <v>0.04</v>
+      </c>
+      <c r="D391">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B392">
+        <v>103</v>
+      </c>
+      <c r="C392">
+        <v>0.47</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B393">
+        <v>650</v>
+      </c>
+      <c r="C393">
+        <v>0.47</v>
+      </c>
+      <c r="D393">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B394">
+        <v>42</v>
+      </c>
+      <c r="C394">
+        <v>0.43</v>
+      </c>
+      <c r="D394">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B395">
+        <v>24</v>
+      </c>
+      <c r="C395">
+        <v>0.34</v>
+      </c>
+      <c r="D395">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B396">
+        <v>27</v>
+      </c>
+      <c r="C396">
+        <v>0.53</v>
+      </c>
+      <c r="D396">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B397">
+        <v>46</v>
+      </c>
+      <c r="C397">
+        <v>0.35</v>
+      </c>
+      <c r="D397">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B398">
+        <v>30</v>
+      </c>
+      <c r="C398">
+        <v>0.54</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B399">
+        <v>60</v>
+      </c>
+      <c r="C399">
+        <v>0.23</v>
+      </c>
+      <c r="D399">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B400">
+        <v>37</v>
+      </c>
+      <c r="C400">
+        <v>0.38</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B401">
+        <v>198</v>
+      </c>
+      <c r="C401">
+        <v>0.73</v>
+      </c>
+      <c r="D401">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B402">
+        <v>38</v>
+      </c>
+      <c r="C402">
+        <v>0.25</v>
+      </c>
+      <c r="D402">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B403">
+        <v>37</v>
+      </c>
+      <c r="C403">
+        <v>0.26</v>
+      </c>
+      <c r="D403">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B404">
+        <v>70</v>
+      </c>
+      <c r="C404">
+        <v>0.31</v>
+      </c>
+      <c r="D404">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B405">
+        <v>21</v>
+      </c>
+      <c r="C405">
+        <v>0.22</v>
+      </c>
+      <c r="D405">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B406">
+        <v>97</v>
+      </c>
+      <c r="C406">
+        <v>0.25</v>
+      </c>
+      <c r="D406">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B407">
+        <v>18</v>
+      </c>
+      <c r="C407">
+        <v>0.18</v>
+      </c>
+      <c r="D407">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B408">
+        <v>31</v>
+      </c>
+      <c r="C408">
+        <v>0.65</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B409">
+        <v>27</v>
+      </c>
+      <c r="C409">
+        <v>0.41</v>
+      </c>
+      <c r="D409">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B410">
+        <v>63</v>
+      </c>
+      <c r="C410">
+        <v>0.3</v>
+      </c>
+      <c r="D410">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B411">
+        <v>8</v>
+      </c>
+      <c r="C411">
+        <v>0.43</v>
+      </c>
+      <c r="D411">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B412">
+        <v>38</v>
+      </c>
+      <c r="C412">
+        <v>0.34</v>
+      </c>
+      <c r="D412">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B413">
+        <v>30</v>
+      </c>
+      <c r="C413">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D413">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B414">
+        <v>14</v>
+      </c>
+      <c r="C414">
+        <v>0.55</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B415">
+        <v>30</v>
+      </c>
+      <c r="C415">
+        <v>0.4</v>
+      </c>
+      <c r="D415">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B416">
+        <v>11</v>
+      </c>
+      <c r="C416">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B417">
+        <v>19</v>
+      </c>
+      <c r="C417">
+        <v>0.38</v>
+      </c>
+      <c r="D417">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B418">
+        <v>72</v>
+      </c>
+      <c r="C418">
+        <v>0.45</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B419">
+        <v>19</v>
+      </c>
+      <c r="C419">
+        <v>0.2</v>
+      </c>
+      <c r="D419">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B420">
+        <v>18</v>
+      </c>
+      <c r="C420">
+        <v>0.27</v>
+      </c>
+      <c r="D420">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B421">
+        <v>24</v>
+      </c>
+      <c r="C421">
+        <v>0.34</v>
+      </c>
+      <c r="D421">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B422">
+        <v>49</v>
+      </c>
+      <c r="C422">
+        <v>0.28</v>
+      </c>
+      <c r="D422">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B423">
+        <v>25</v>
+      </c>
+      <c r="C423">
+        <v>0.3</v>
+      </c>
+      <c r="D423">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B424">
+        <v>45</v>
+      </c>
+      <c r="C424">
+        <v>0.42</v>
+      </c>
+      <c r="D424">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B425">
+        <v>53</v>
+      </c>
+      <c r="C425">
+        <v>0.55</v>
+      </c>
+      <c r="D425">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B426">
+        <v>44</v>
+      </c>
+      <c r="C426">
+        <v>0.03</v>
+      </c>
+      <c r="D426">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B427">
+        <v>10</v>
+      </c>
+      <c r="C427">
+        <v>0.5</v>
+      </c>
+      <c r="D427">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B428">
+        <v>25</v>
+      </c>
+      <c r="C428">
+        <v>0.47</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B429">
+        <v>17</v>
+      </c>
+      <c r="C429">
+        <v>0.34</v>
+      </c>
+      <c r="D429">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B430">
+        <v>20</v>
+      </c>
+      <c r="C430">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B431">
+        <v>11</v>
+      </c>
+      <c r="C431">
+        <v>0.4</v>
+      </c>
+      <c r="D431">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B432">
+        <v>34</v>
+      </c>
+      <c r="C432">
+        <v>0.2</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B433">
+        <v>16</v>
+      </c>
+      <c r="C433">
+        <v>0.14</v>
+      </c>
+      <c r="D433">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B434">
+        <v>14</v>
+      </c>
+      <c r="C434">
+        <v>0.28</v>
+      </c>
+      <c r="D434">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B435">
+        <v>22</v>
+      </c>
+      <c r="C435">
+        <v>0.41</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B436">
+        <v>12</v>
+      </c>
+      <c r="C436">
+        <v>0.54</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B437">
+        <v>55</v>
+      </c>
+      <c r="C437">
+        <v>0.19</v>
+      </c>
+      <c r="D437">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B438">
+        <v>65</v>
+      </c>
+      <c r="C438">
+        <v>0.5</v>
+      </c>
+      <c r="D438">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B439">
+        <v>12</v>
+      </c>
+      <c r="C439">
+        <v>0.62</v>
+      </c>
+      <c r="D439">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B440">
+        <v>31</v>
+      </c>
+      <c r="C440">
+        <v>0.51</v>
+      </c>
+      <c r="D440">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B441">
+        <v>18</v>
+      </c>
+      <c r="C441">
+        <v>0.48</v>
+      </c>
+      <c r="D441">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B442">
+        <v>11</v>
+      </c>
+      <c r="C442">
+        <v>0.29</v>
+      </c>
+      <c r="D442">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B443">
+        <v>111</v>
+      </c>
+      <c r="C443">
+        <v>0.45</v>
+      </c>
+      <c r="D443">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B444">
+        <v>105</v>
+      </c>
+      <c r="C444">
+        <v>0.37</v>
+      </c>
+      <c r="D444">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B445">
+        <v>17</v>
+      </c>
+      <c r="C445">
+        <v>0.52</v>
+      </c>
+      <c r="D445">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B446">
+        <v>60</v>
+      </c>
+      <c r="C446">
+        <v>0.33</v>
+      </c>
+      <c r="D446">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B447">
+        <v>110</v>
+      </c>
+      <c r="C447">
+        <v>0.6</v>
+      </c>
+      <c r="D447">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B448">
+        <v>9</v>
+      </c>
+      <c r="C448">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B449">
+        <v>113</v>
+      </c>
+      <c r="C449">
+        <v>0.6</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B450">
+        <v>29</v>
+      </c>
+      <c r="C450">
+        <v>0.54</v>
+      </c>
+      <c r="D450">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B451">
+        <v>49</v>
+      </c>
+      <c r="C451">
+        <v>0.71</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B452">
+        <v>61</v>
+      </c>
+      <c r="C452">
+        <v>0.31</v>
+      </c>
+      <c r="D452">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B453">
+        <v>31</v>
+      </c>
+      <c r="C453">
+        <v>0.37</v>
+      </c>
+      <c r="D453">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B454">
+        <v>23</v>
+      </c>
+      <c r="C454">
+        <v>0.19</v>
+      </c>
+      <c r="D454">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B455">
+        <v>40</v>
+      </c>
+      <c r="C455">
+        <v>0.41</v>
+      </c>
+      <c r="D455">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B456">
+        <v>24</v>
+      </c>
+      <c r="C456">
+        <v>0.51</v>
+      </c>
+      <c r="D456">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B457">
+        <v>36</v>
+      </c>
+      <c r="C457">
+        <v>0.87</v>
+      </c>
+      <c r="D457">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B458">
+        <v>80</v>
+      </c>
+      <c r="C458">
+        <v>0.75</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B459">
+        <v>24</v>
+      </c>
+      <c r="C459">
+        <v>0.43</v>
+      </c>
+      <c r="D459">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B460">
+        <v>35</v>
+      </c>
+      <c r="C460">
+        <v>0.5</v>
+      </c>
+      <c r="D460">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B461">
+        <v>18</v>
+      </c>
+      <c r="C461">
+        <v>0.52</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B462">
+        <v>11</v>
+      </c>
+      <c r="C462">
+        <v>0.21</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B463">
+        <v>34</v>
+      </c>
+      <c r="C463">
+        <v>0.32</v>
+      </c>
+      <c r="D463">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B464">
+        <v>17</v>
+      </c>
+      <c r="C464">
+        <v>0.62</v>
+      </c>
+      <c r="D464">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B465">
+        <v>48</v>
+      </c>
+      <c r="C465">
+        <v>0.37</v>
+      </c>
+      <c r="D465">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B466">
+        <v>13</v>
+      </c>
+      <c r="C466">
+        <v>0.52</v>
+      </c>
+      <c r="D466">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B467">
+        <v>8</v>
+      </c>
+      <c r="C467">
+        <v>0.43</v>
+      </c>
+      <c r="D467">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B468">
+        <v>31</v>
+      </c>
+      <c r="C468">
+        <v>0.19</v>
+      </c>
+      <c r="D468">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B469">
+        <v>277</v>
+      </c>
+      <c r="C469">
+        <v>0.11</v>
+      </c>
+      <c r="D469">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B470">
+        <v>26</v>
+      </c>
+      <c r="C470">
+        <v>0.35</v>
+      </c>
+      <c r="D470">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B471">
+        <v>35</v>
+      </c>
+      <c r="C471">
+        <v>0.53</v>
+      </c>
+      <c r="D471">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B472">
+        <v>12</v>
+      </c>
+      <c r="C472">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B473">
+        <v>21</v>
+      </c>
+      <c r="C473">
+        <v>0.4</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B474">
+        <v>13</v>
+      </c>
+      <c r="C474">
+        <v>0.28</v>
+      </c>
+      <c r="D474">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B475">
+        <v>10</v>
+      </c>
+      <c r="C475">
+        <v>0.33</v>
+      </c>
+      <c r="D475">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B476">
+        <v>131</v>
+      </c>
+      <c r="C476">
+        <v>0.18</v>
+      </c>
+      <c r="D476">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B477">
+        <v>15</v>
+      </c>
+      <c r="C477">
+        <v>0.52</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B478">
+        <v>21</v>
+      </c>
+      <c r="C478">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D478">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B479">
+        <v>21</v>
+      </c>
+      <c r="C479">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D479">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B480">
+        <v>155</v>
+      </c>
+      <c r="C480">
+        <v>0.52</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B481">
+        <v>11</v>
+      </c>
+      <c r="C481">
+        <v>0.41</v>
+      </c>
+      <c r="D481">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B482">
+        <v>9</v>
+      </c>
+      <c r="C482">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B483">
+        <v>9</v>
+      </c>
+      <c r="C483">
+        <v>0.33</v>
+      </c>
+      <c r="D483">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B484">
+        <v>115</v>
+      </c>
+      <c r="C484">
+        <v>0.5</v>
+      </c>
+      <c r="D484">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B485">
+        <v>38</v>
+      </c>
+      <c r="C485">
+        <v>0.2</v>
+      </c>
+      <c r="D485">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B486">
+        <v>14</v>
+      </c>
+      <c r="C486">
+        <v>0.49</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B487">
+        <v>103</v>
+      </c>
+      <c r="C487">
+        <v>0.53</v>
+      </c>
+      <c r="D487">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B488">
+        <v>11</v>
+      </c>
+      <c r="C488">
+        <v>0.36</v>
+      </c>
+      <c r="D488">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B489">
+        <v>53</v>
+      </c>
+      <c r="C489">
+        <v>0.63</v>
+      </c>
+      <c r="D489">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B490">
+        <v>58</v>
+      </c>
+      <c r="C490">
+        <v>0.34</v>
+      </c>
+      <c r="D490">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B491">
+        <v>9</v>
+      </c>
+      <c r="C491">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B492">
+        <v>18</v>
+      </c>
+      <c r="C492">
+        <v>0.18</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B493">
+        <v>13</v>
+      </c>
+      <c r="C493">
+        <v>0.27</v>
+      </c>
+      <c r="D493">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B494">
+        <v>14</v>
+      </c>
+      <c r="C494">
+        <v>0.65</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B495">
+        <v>77</v>
+      </c>
+      <c r="C495">
+        <v>0.51</v>
+      </c>
+      <c r="D495">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B496">
+        <v>19</v>
+      </c>
+      <c r="C496">
+        <v>0.64</v>
+      </c>
+      <c r="D496">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B497">
+        <v>10</v>
+      </c>
+      <c r="C497">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B498">
+        <v>22</v>
+      </c>
+      <c r="C498">
+        <v>0.65</v>
+      </c>
+      <c r="D498">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B499">
+        <v>29</v>
+      </c>
+      <c r="C499">
+        <v>0.33</v>
+      </c>
+      <c r="D499">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B500">
+        <v>50</v>
+      </c>
+      <c r="C500">
+        <v>0.45</v>
+      </c>
+      <c r="D500">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B501">
+        <v>13</v>
+      </c>
+      <c r="C501">
+        <v>0.3</v>
+      </c>
+      <c r="D501">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B502">
+        <v>83</v>
+      </c>
+      <c r="C502">
+        <v>0.28</v>
+      </c>
+      <c r="D502">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B503">
+        <v>14</v>
+      </c>
+      <c r="C503">
+        <v>0.63</v>
+      </c>
+      <c r="D503">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B504">
+        <v>32</v>
+      </c>
+      <c r="C504">
+        <v>0.25</v>
+      </c>
+      <c r="D504">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B505">
+        <v>93</v>
+      </c>
+      <c r="C505">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B506">
+        <v>66</v>
+      </c>
+      <c r="C506">
+        <v>0.38</v>
+      </c>
+      <c r="D506">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B507">
+        <v>44</v>
+      </c>
+      <c r="C507">
+        <v>0.53</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B508">
+        <v>25</v>
+      </c>
+      <c r="C508">
+        <v>0.2</v>
+      </c>
+      <c r="D508">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B509">
+        <v>35</v>
+      </c>
+      <c r="C509">
+        <v>0.4</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B510">
+        <v>29</v>
+      </c>
+      <c r="C510">
+        <v>0.44</v>
+      </c>
+      <c r="D510">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B511">
+        <v>48</v>
+      </c>
+      <c r="C511">
+        <v>0.19</v>
+      </c>
+      <c r="D511">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B512">
+        <v>21</v>
+      </c>
+      <c r="C512">
+        <v>0.47</v>
+      </c>
+      <c r="D512">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B513">
+        <v>10</v>
+      </c>
+      <c r="C513">
+        <v>0.65</v>
+      </c>
+      <c r="D513">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B514">
+        <v>15</v>
+      </c>
+      <c r="C514">
+        <v>0.24</v>
+      </c>
+      <c r="D514">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B515">
+        <v>175</v>
+      </c>
+      <c r="C515">
+        <v>0.22</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B516">
+        <v>438</v>
+      </c>
+      <c r="C516">
+        <v>0.59</v>
+      </c>
+      <c r="D516">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B517">
+        <v>8</v>
+      </c>
+      <c r="C517">
+        <v>0.57</v>
+      </c>
+      <c r="D517">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B518">
+        <v>12</v>
+      </c>
+      <c r="C518">
+        <v>0.34</v>
+      </c>
+      <c r="D518">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B519">
+        <v>46</v>
+      </c>
+      <c r="C519">
+        <v>0.35</v>
+      </c>
+      <c r="D519">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B520">
+        <v>39</v>
+      </c>
+      <c r="C520">
+        <v>0.27</v>
+      </c>
+      <c r="D520">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B521">
+        <v>21</v>
+      </c>
+      <c r="C521">
+        <v>0.2</v>
+      </c>
+      <c r="D521">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B522">
+        <v>24</v>
+      </c>
+      <c r="C522">
+        <v>0.49</v>
+      </c>
+      <c r="D522">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B523">
+        <v>37</v>
+      </c>
+      <c r="C523">
+        <v>0.05</v>
+      </c>
+      <c r="D523">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B524">
+        <v>12</v>
+      </c>
+      <c r="C524">
+        <v>0.44</v>
+      </c>
+      <c r="D524">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B525">
+        <v>20</v>
+      </c>
+      <c r="C525">
+        <v>0.49</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B526">
+        <v>29</v>
+      </c>
+      <c r="C526">
+        <v>0.13</v>
+      </c>
+      <c r="D526">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B527">
+        <v>24</v>
+      </c>
+      <c r="C527">
+        <v>0.43</v>
+      </c>
+      <c r="D527">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B528">
+        <v>19</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B529">
+        <v>38</v>
+      </c>
+      <c r="C529">
+        <v>0.31</v>
+      </c>
+      <c r="D529">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B530">
+        <v>16</v>
+      </c>
+      <c r="C530">
+        <v>0.29</v>
+      </c>
+      <c r="D530">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B531">
+        <v>16</v>
+      </c>
+      <c r="C531">
+        <v>0.46</v>
+      </c>
+      <c r="D531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B532">
+        <v>17</v>
+      </c>
+      <c r="C532">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B533">
+        <v>14</v>
+      </c>
+      <c r="C533">
+        <v>0.51</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B534">
+        <v>18</v>
+      </c>
+      <c r="C534">
+        <v>0.19</v>
+      </c>
+      <c r="D534">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B535">
+        <v>13</v>
+      </c>
+      <c r="C535">
+        <v>0.51</v>
+      </c>
+      <c r="D535">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B536">
+        <v>17</v>
+      </c>
+      <c r="C536">
+        <v>0.08</v>
+      </c>
+      <c r="D536">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B537">
+        <v>29</v>
+      </c>
+      <c r="C537">
+        <v>0.38</v>
+      </c>
+      <c r="D537">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B538">
+        <v>13</v>
+      </c>
+      <c r="C538">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D538">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B539">
+        <v>88</v>
+      </c>
+      <c r="C539">
+        <v>0.01</v>
+      </c>
+      <c r="D539">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B540">
+        <v>22</v>
+      </c>
+      <c r="C540">
+        <v>1.13</v>
+      </c>
+      <c r="D540">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B541">
+        <v>22</v>
+      </c>
+      <c r="C541">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D541">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B542">
+        <v>20</v>
+      </c>
+      <c r="C542">
+        <v>0.48</v>
+      </c>
+      <c r="D542">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B543">
+        <v>9</v>
+      </c>
+      <c r="C543">
+        <v>0.23</v>
+      </c>
+      <c r="D543">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B544">
+        <v>97</v>
+      </c>
+      <c r="C544">
+        <v>0.5</v>
+      </c>
+      <c r="D544">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B545">
+        <v>112</v>
+      </c>
+      <c r="C545">
+        <v>0.47</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B546">
+        <v>63</v>
+      </c>
+      <c r="C546">
+        <v>0.44</v>
+      </c>
+      <c r="D546">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B547">
+        <v>12</v>
+      </c>
+      <c r="C547">
+        <v>0.49</v>
+      </c>
+      <c r="D547">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B548">
+        <v>9</v>
+      </c>
+      <c r="C548">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B549">
+        <v>15</v>
+      </c>
+      <c r="C549">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D549">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B550">
+        <v>21</v>
+      </c>
+      <c r="C550">
+        <v>0.38</v>
+      </c>
+      <c r="D550">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B551">
+        <v>31</v>
+      </c>
+      <c r="C551">
+        <v>0.49</v>
+      </c>
+      <c r="D551">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B552">
+        <v>55</v>
+      </c>
+      <c r="C552">
+        <v>0.41</v>
+      </c>
+      <c r="D552">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B553">
+        <v>50</v>
+      </c>
+      <c r="C553">
+        <v>0.33</v>
+      </c>
+      <c r="D553">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B554">
+        <v>98</v>
+      </c>
+      <c r="C554">
+        <v>0.22</v>
+      </c>
+      <c r="D554">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B555">
+        <v>28</v>
+      </c>
+      <c r="C555">
+        <v>0.25</v>
+      </c>
+      <c r="D555">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B556">
+        <v>15</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B557">
+        <v>19</v>
+      </c>
+      <c r="C557">
+        <v>0.35</v>
+      </c>
+      <c r="D557">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B558">
+        <v>44</v>
+      </c>
+      <c r="C558">
+        <v>0.27</v>
+      </c>
+      <c r="D558">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B559">
+        <v>10</v>
+      </c>
+      <c r="C559">
+        <v>0.62</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B560">
+        <v>17</v>
+      </c>
+      <c r="C560">
+        <v>0.6</v>
+      </c>
+      <c r="D560">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B561">
+        <v>66</v>
+      </c>
+      <c r="C561">
+        <v>0.52</v>
+      </c>
+      <c r="D561">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B562">
+        <v>18</v>
+      </c>
+      <c r="C562">
+        <v>0.28</v>
+      </c>
+      <c r="D562">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B563">
+        <v>44</v>
+      </c>
+      <c r="C563">
+        <v>0.2</v>
+      </c>
+      <c r="D563">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B564">
+        <v>30</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B565">
+        <v>14</v>
+      </c>
+      <c r="C565">
+        <v>0.53</v>
+      </c>
+      <c r="D565">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
